--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73542.16153540064</v>
+        <v>93527.92756938645</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484457</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8480876.355913512</v>
+        <v>8524835.541560613</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>325.16745234556</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>371.8093571402162</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>163.293878347428</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>58.81542498140369</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>345.9081241518875</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.1472970361152</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1133,13 +1133,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>322.5513054085286</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>216.081836105447</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.8523599663048</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>46.45303019605558</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0.3434875472293757</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>249.6694213188109</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>162.9282706828485</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>414.6283006541865</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864811</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930767003</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791303539</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>340.2706546104179</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225714</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.05677735225833</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.68260764377609</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>179.0861311466707</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>94.21878984361658</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.3431845617052</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>205.9320983586121</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>164.9135579823451</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800578</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>101.2878188239684</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3563,7 +3563,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430768</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>20.73696989209206</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>35.20092700998609</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.5018050100016</v>
+        <v>52.5117099198479</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1326.486195002682</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230547</v>
+        <v>888.3437221861057</v>
       </c>
       <c r="D2" t="n">
-        <v>788.0372869678149</v>
+        <v>856.4743414009542</v>
       </c>
       <c r="E2" t="n">
-        <v>459.5853149015927</v>
+        <v>422.6995965592494</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>47.13458934690976</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>47.13458934690976</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>47.13458934690976</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404976</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>463.9715986331047</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>463.9715986331047</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>463.9715986331047</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>463.9715986331047</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>463.9715986331047</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1042.10437331197</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990836</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949431</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702488</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2252.238124886325</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2032.170897759363</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1772.94859507638</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1772.94859507638</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1772.133544527818</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1757.031485147533</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1348.745361447186</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1178.821982214972</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1072.365521051614</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>977.2752321981675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>883.1548175251212</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>799.7709791412829</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>714.3858894074667</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>672.6502372236791</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>698.7139103841366</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1023.272235350349</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1601.405010029215</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1601.405010029215</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976073</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976073</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976073</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976073</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2218.717220608148</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702488</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2272.434561150871</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2142.255917481473</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1965.919370481441</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1766.80185254344</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1581.479098276634</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1426.611662515514</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1300.125883294735</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>1125.775960585931</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>953.2142490691562</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>787.3362562706789</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>617.5782525214161</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>440.8711984831722</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>275.2799235089999</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>135.3777491993744</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404976</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>133.2974851387396</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>408.0559397098752</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>826.2658214778362</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1285.749688658749</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1728.008491816394</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1820.190329867814</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2167.697223838155</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702488</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.47217740786</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2155.230808705856</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1909.351362284312</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1909.351362284312</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1622.395854154742</v>
       </c>
       <c r="W4" t="n">
-        <v>1532.240118618369</v>
+        <v>1622.395854154742</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>1377.004099488154</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1317.594579304918</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>1702.080476705852</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1667.97840792968</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1232.068623104124</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>89.90148899448771</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>89.90148899448771</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.0776450162207</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230546</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>890.8095618279922</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111165</v>
+        <v>2030.036085335214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.8458429112338</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C10" t="n">
-        <v>173.8458429112338</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>173.8458429112338</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>173.8458429112338</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1631.211428413499</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1385.819673746912</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.8381257054811</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2218.436874313037</v>
+        <v>2506.800593293131</v>
       </c>
       <c r="C11" t="n">
-        <v>1780.294401496461</v>
+        <v>2068.658120476554</v>
       </c>
       <c r="D11" t="n">
-        <v>1344.384616670905</v>
+        <v>1632.748335650999</v>
       </c>
       <c r="E11" t="n">
-        <v>910.6098718292002</v>
+        <v>1198.973590809294</v>
       </c>
       <c r="F11" t="n">
-        <v>482.742442238408</v>
+        <v>771.1061612185018</v>
       </c>
       <c r="G11" t="n">
-        <v>81.34461086167185</v>
+        <v>369.7083298417657</v>
       </c>
       <c r="H11" t="n">
-        <v>81.34461086167185</v>
+        <v>80.57817528498195</v>
       </c>
       <c r="I11" t="n">
-        <v>81.34461086167185</v>
+        <v>80.16138591212196</v>
       </c>
       <c r="J11" t="n">
-        <v>516.5992983145898</v>
+        <v>515.4160733650398</v>
       </c>
       <c r="K11" t="n">
-        <v>516.5992983145898</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="L11" t="n">
-        <v>1523.238857727779</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="M11" t="n">
-        <v>2523.267817538544</v>
+        <v>1483.926903490743</v>
       </c>
       <c r="N11" t="n">
-        <v>2523.267817538544</v>
+        <v>1483.926903490743</v>
       </c>
       <c r="O11" t="n">
-        <v>2523.267817538544</v>
+        <v>2464.10657006105</v>
       </c>
       <c r="P11" t="n">
-        <v>3351.577692371941</v>
+        <v>3292.416444894446</v>
       </c>
       <c r="Q11" t="n">
-        <v>3898.076478330536</v>
+        <v>3838.915230853041</v>
       </c>
       <c r="R11" t="n">
-        <v>4067.230543083592</v>
+        <v>4008.069295606098</v>
       </c>
       <c r="S11" t="n">
-        <v>3983.578669267429</v>
+        <v>3924.417421789934</v>
       </c>
       <c r="T11" t="n">
-        <v>3983.578669267429</v>
+        <v>3704.350194662973</v>
       </c>
       <c r="U11" t="n">
-        <v>3724.356366584446</v>
+        <v>3704.003237544559</v>
       </c>
       <c r="V11" t="n">
-        <v>3724.356366584446</v>
+        <v>3341.386287478385</v>
       </c>
       <c r="W11" t="n">
-        <v>3472.165031918981</v>
+        <v>3341.386287478385</v>
       </c>
       <c r="X11" t="n">
-        <v>3053.022568498292</v>
+        <v>3341.386287478385</v>
       </c>
       <c r="Y11" t="n">
-        <v>2644.736444797945</v>
+        <v>2933.100163778039</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>587.5163558529647</v>
+        <v>586.3331309034147</v>
       </c>
       <c r="C12" t="n">
-        <v>481.0598946896069</v>
+        <v>479.876669740057</v>
       </c>
       <c r="D12" t="n">
-        <v>385.9696058361602</v>
+        <v>384.7863808866103</v>
       </c>
       <c r="E12" t="n">
-        <v>291.8491911631139</v>
+        <v>290.665966213564</v>
       </c>
       <c r="F12" t="n">
-        <v>208.4653527792755</v>
+        <v>207.2821278297256</v>
       </c>
       <c r="G12" t="n">
-        <v>123.0802630454594</v>
+        <v>121.8970380959095</v>
       </c>
       <c r="H12" t="n">
-        <v>81.34461086167185</v>
+        <v>80.16138591212196</v>
       </c>
       <c r="I12" t="n">
-        <v>107.4082840221295</v>
+        <v>106.2250590725796</v>
       </c>
       <c r="J12" t="n">
-        <v>431.9666089883418</v>
+        <v>106.2250590725796</v>
       </c>
       <c r="K12" t="n">
-        <v>1086.672655614065</v>
+        <v>106.2250590725796</v>
       </c>
       <c r="L12" t="n">
-        <v>1086.672655614065</v>
+        <v>106.2250590725796</v>
       </c>
       <c r="M12" t="n">
-        <v>1086.672655614065</v>
+        <v>106.2250590725796</v>
       </c>
       <c r="N12" t="n">
-        <v>1086.672655614065</v>
+        <v>106.2250590725796</v>
       </c>
       <c r="O12" t="n">
-        <v>1086.672655614065</v>
+        <v>265.7662641853174</v>
       </c>
       <c r="P12" t="n">
-        <v>1086.672655614065</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="Q12" t="n">
-        <v>1627.411594246141</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1744.584372340481</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1681.128934788864</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1550.950291119465</v>
+        <v>1549.767066169916</v>
       </c>
       <c r="U12" t="n">
-        <v>1374.613744119434</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1175.496226181433</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>990.173471914627</v>
+        <v>988.9902469650772</v>
       </c>
       <c r="X12" t="n">
-        <v>835.3060361535071</v>
+        <v>834.1228112039571</v>
       </c>
       <c r="Y12" t="n">
-        <v>708.8202569327278</v>
+        <v>707.6370319831778</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>818.0830562075155</v>
+        <v>2241.90572278023</v>
       </c>
       <c r="C13" t="n">
-        <v>818.0830562075155</v>
+        <v>2069.344011263455</v>
       </c>
       <c r="D13" t="n">
-        <v>652.2050634090382</v>
+        <v>1903.466018464977</v>
       </c>
       <c r="E13" t="n">
-        <v>652.2050634090382</v>
+        <v>1733.708014715714</v>
       </c>
       <c r="F13" t="n">
-        <v>475.4980093707944</v>
+        <v>1557.000960677471</v>
       </c>
       <c r="G13" t="n">
-        <v>309.906734396622</v>
+        <v>1391.409685703298</v>
       </c>
       <c r="H13" t="n">
-        <v>170.0045600869965</v>
+        <v>1391.409685703298</v>
       </c>
       <c r="I13" t="n">
-        <v>81.34461086167185</v>
+        <v>1391.409685703298</v>
       </c>
       <c r="J13" t="n">
-        <v>167.9242960263617</v>
+        <v>1477.989370867988</v>
       </c>
       <c r="K13" t="n">
-        <v>442.6827505974973</v>
+        <v>1752.747825439124</v>
       </c>
       <c r="L13" t="n">
-        <v>860.8926323654583</v>
+        <v>2170.957707207085</v>
       </c>
       <c r="M13" t="n">
-        <v>1320.376499546371</v>
+        <v>2630.441574387998</v>
       </c>
       <c r="N13" t="n">
-        <v>1762.635302704016</v>
+        <v>3072.700377545642</v>
       </c>
       <c r="O13" t="n">
-        <v>2182.304551929797</v>
+        <v>3492.369626771424</v>
       </c>
       <c r="P13" t="n">
-        <v>2529.811445900139</v>
+        <v>3839.876520741765</v>
       </c>
       <c r="Q13" t="n">
-        <v>2698.004220764471</v>
+        <v>4008.069295606098</v>
       </c>
       <c r="R13" t="n">
-        <v>2698.004220764471</v>
+        <v>4008.069295606098</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.762852062468</v>
+        <v>3989.830126563414</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.883405640923</v>
+        <v>3743.950680141869</v>
       </c>
       <c r="U13" t="n">
-        <v>2014.450404894028</v>
+        <v>3465.517679394974</v>
       </c>
       <c r="V13" t="n">
-        <v>1727.494896764459</v>
+        <v>3178.562171265405</v>
       </c>
       <c r="W13" t="n">
-        <v>1455.46849235075</v>
+        <v>2906.535766851696</v>
       </c>
       <c r="X13" t="n">
-        <v>1210.076737684163</v>
+        <v>2661.144012185109</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.6570669982711</v>
+        <v>2433.724341499217</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2509.179631825954</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.363166518695</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.45338169314</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.678636851435</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>792.8112072606427</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>391.4133758839066</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.2832213271229</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>101.8664319542629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>101.8664319542629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.2167239124409</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.2766901653</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.2766901653</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N14" t="n">
-        <v>2569.179205597793</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3549.358872168099</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4377.668747001495</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4924.167532960089</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>5093.321597713146</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5009.669723896983</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.602496770021</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4530.380194087038</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
-        <v>4167.763244020864</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W14" t="n">
-        <v>3762.907789431898</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3343.765326011209</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2935.479202310862</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.0381769455557</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.581715782198</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.4914269287513</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.371012255705</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>228.9871738718666</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
-        <v>143.6020841380505</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>101.8664319542629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>127.9301051147205</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>452.4884300809329</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1571.472112212057</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>855.8278572460981</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.3420780253189</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.3624690311942</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>779.8007575144192</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>613.9227647159419</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>444.1647609666791</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>267.4577069284353</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>101.8664319542629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>101.8664319542639</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>101.8664319542639</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.4461171189537</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.2045716900893</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.4144534580504</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1340.898320638963</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.157123796608</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2202.826373022389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.333266992731</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.526041857063</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.526041857063</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.286872814379</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.407426392834</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2175.974425645939</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.018917516369</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.992513102661</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.600758436073</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.181087750181</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.088849962412</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C17" t="n">
-        <v>2089.946377145835</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.03659232028</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.261847478575</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>792.3944178877828</v>
+        <v>793.2056155771584</v>
       </c>
       <c r="G17" t="n">
-        <v>390.9965865110466</v>
+        <v>391.8077842004222</v>
       </c>
       <c r="H17" t="n">
-        <v>101.8664319542629</v>
+        <v>102.6776296436385</v>
       </c>
       <c r="I17" t="n">
-        <v>101.8664319542629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.1211194071808</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.471411365359</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.531377618218</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M17" t="n">
-        <v>2569.179205597793</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N17" t="n">
-        <v>2569.179205597793</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3549.358872168099</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4377.668747001495</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4924.167532960089</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
-        <v>5093.321597713146</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5009.669723896983</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.602496770021</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4530.380194087038</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4186.672462157323</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
-        <v>3781.817007568357</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3362.674544147667</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2954.38842044732</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.0381769455557</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.581715782198</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.4914269287513</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.371012255705</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>228.9871738718666</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
-        <v>143.6020841380505</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>101.8664319542629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>127.9301051147205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.4884300809329</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.194476706657</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.194476706657</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.194476706657</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.194476706657</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.194476706657</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1571.472112212057</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>855.8278572460981</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.3420780253189</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.362469031194</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>779.8007575144192</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>613.9227647159419</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.1647609666791</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.4577069284352</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>101.8664319542629</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>101.8664319542639</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>101.8664319542639</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.4461171189537</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.2045716900893</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.4144534580504</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1340.898320638963</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.157123796608</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2202.826373022389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.333266992731</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.526041857063</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2700.286872814378</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.286872814378</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.407426392833</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2175.974425645938</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.018917516369</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.99251310266</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.600758436073</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.181087750181</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.505639335273</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.363166518696</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.453381693141</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.678636851436</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>792.8112072606436</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.4133758839075</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.2832213271237</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>101.8664319542629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.1211194071808</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.471411365359</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.531377618218</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.531377618218</v>
+        <v>2758.053686176682</v>
       </c>
       <c r="N20" t="n">
-        <v>2569.179205597793</v>
+        <v>2758.053686176682</v>
       </c>
       <c r="O20" t="n">
-        <v>3549.358872168099</v>
+        <v>3738.233352746989</v>
       </c>
       <c r="P20" t="n">
-        <v>4377.668747001495</v>
+        <v>4566.543227580385</v>
       </c>
       <c r="Q20" t="n">
-        <v>4924.167532960089</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
-        <v>5093.321597713146</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5028.995731406301</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4808.92850427934</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4549.706201596357</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.089251530183</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.233796941216</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.091333520527</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2954.805209820181</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.0381769455557</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.581715782198</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.4914269287513</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.371012255705</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>228.9871738718666</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
-        <v>143.6020841380505</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>101.8664319542629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>127.9301051147205</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.4884300809329</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.472112212057</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>855.8278572460981</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.3420780253189</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1180.924592566144</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.362881049369</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D22" t="n">
-        <v>842.484888250892</v>
+        <v>632.5563420751427</v>
       </c>
       <c r="E22" t="n">
-        <v>672.7268845016292</v>
+        <v>462.7983383258799</v>
       </c>
       <c r="F22" t="n">
-        <v>496.0198304633854</v>
+        <v>286.0912842876361</v>
       </c>
       <c r="G22" t="n">
-        <v>330.4285554892131</v>
+        <v>120.5000093134637</v>
       </c>
       <c r="H22" t="n">
-        <v>190.5263811795876</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>101.8664319542629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.4461171189528</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.2045716900884</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.4144534580495</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1340.898320638963</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.284673155059</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.405226733514</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2313.405226733514</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2026.449718603945</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.554636637611</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.162881971023</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1372.743211285132</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903952</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736202</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751429</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258801</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876362</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6184,7 +6184,7 @@
         <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
         <v>1390.234335795274</v>
@@ -6212,37 +6212,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883921</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716171</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731398</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238772</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856334</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2265.028783187779</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903956</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736203</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.556342075143</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258803</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0912842876365</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134642</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>949.5782250957664</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>777.0165135789913</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>611.138520780514</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.50262887895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.50262887895</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580941</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500645</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,19 +6944,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,16 +7181,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785924</v>
@@ -7254,19 +7254,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>889.8015492906969</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>723.9235564922196</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>554.1655527429568</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>377.4584987047131</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>211.8672237305407</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2683.3639582443</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7418,22 +7418,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7442,19 +7442,19 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917136</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932363</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832885</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7728,22 +7728,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
         <v>267.852115244952</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>421.468483493995</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>583.972499675622</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.972499675622</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.972499675622</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>77.34673934026046</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8140,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>296.9562613211783</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>93.11296772870696</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8690,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1016.807635770898</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1010.130262435117</v>
+        <v>135.5156951187128</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8766,10 +8766,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>935.0031416802843</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>563.5378943762548</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>123.8866949288631</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>314.2706063049977</v>
       </c>
       <c r="N20" t="n">
-        <v>123.8866949288631</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>973.8822356326327</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,7 +10841,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10902,22 +10902,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>695.4268903509978</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,7 +11078,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.2865921089239</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>151.1374787242661</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.97216184894876</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>19.13274743422443</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>139.5921776627254</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.043665154298878e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>18.72012595509386</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.146865729423506</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.13274743422527</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24175,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>90.22000922290067</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>69.71657238081403</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>69.7165723808136</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142715</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.146865729425031</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>141.6500182959533</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>122.4480280049972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>3.146865729424125</v>
+        <v>223.1369608195778</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>713109.1760304688</v>
+        <v>724571.9589469696</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>713109.1760304688</v>
+        <v>730569.278911203</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>713109.1760304688</v>
+        <v>730569.278911203</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637265.7859954727</v>
+        <v>630738.8691148278</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>750468.4534694453</v>
+        <v>752644.0924296605</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750468.4534694452</v>
+        <v>752644.0924296604</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750468.4534694452</v>
+        <v>752644.0924296605</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752644.0924296606</v>
+        <v>752644.0924296605</v>
       </c>
     </row>
     <row r="10">
@@ -26320,16 +26320,16 @@
         <v>268073.6599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>223045.8697809705</v>
+        <v>220761.4197373245</v>
       </c>
       <c r="F2" t="n">
-        <v>262667.3087207939</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="G2" t="n">
-        <v>262667.308720794</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="H2" t="n">
-        <v>262667.3087207939</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="I2" t="n">
         <v>263428.7920686761</v>
@@ -26341,7 +26341,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="L2" t="n">
-        <v>263428.792068676</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="M2" t="n">
         <v>263428.7920686761</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087935</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889411</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>176910.9817265655</v>
+        <v>99874.97317730864</v>
       </c>
       <c r="F3" t="n">
-        <v>73500.44137969687</v>
+        <v>79150.85324460924</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1311.018174205441</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>152792.9007051284</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773545</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147656.3051872107</v>
+        <v>83359.2656380511</v>
       </c>
       <c r="N3" t="n">
-        <v>62829.35093431317</v>
+        <v>67659.41322128674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>187011.9732966036</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>80333.83535627245</v>
+        <v>79511.05108384407</v>
       </c>
       <c r="F4" t="n">
-        <v>94604.18322461005</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="G4" t="n">
-        <v>94604.18322461005</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="H4" t="n">
-        <v>94604.18322461005</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875293</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="O4" t="n">
         <v>94878.44464875291</v>
-      </c>
-      <c r="O4" t="n">
-        <v>94878.44464875289</v>
       </c>
       <c r="P4" t="n">
         <v>94878.44464875289</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027782</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>61821.9042548706</v>
+        <v>60922.65329321268</v>
       </c>
       <c r="F5" t="n">
-        <v>77418.48828523982</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>77418.48828523982</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
-        <v>77418.48828523982</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145635.548288946</v>
+        <v>-183774.0573404707</v>
       </c>
       <c r="C6" t="n">
-        <v>-3444.247629236022</v>
+        <v>-7018.599521890734</v>
       </c>
       <c r="D6" t="n">
-        <v>-3444.247629236081</v>
+        <v>19971.60011700339</v>
       </c>
       <c r="E6" t="n">
-        <v>-96020.85155673799</v>
+        <v>-19783.81901808032</v>
       </c>
       <c r="F6" t="n">
-        <v>17144.1958312472</v>
+        <v>11658.03123013884</v>
       </c>
       <c r="G6" t="n">
-        <v>90644.63721094411</v>
+        <v>90808.88447474811</v>
       </c>
       <c r="H6" t="n">
-        <v>90644.637210944</v>
+        <v>90808.88447474816</v>
       </c>
       <c r="I6" t="n">
-        <v>89521.09063992533</v>
+        <v>90808.88447474793</v>
       </c>
       <c r="J6" t="n">
-        <v>-20182.35653085959</v>
+        <v>-61984.01623038033</v>
       </c>
       <c r="K6" t="n">
-        <v>90832.10881413077</v>
+        <v>69307.66507701264</v>
       </c>
       <c r="L6" t="n">
-        <v>90832.10881413062</v>
+        <v>90808.88447474811</v>
       </c>
       <c r="M6" t="n">
-        <v>-56824.19637308008</v>
+        <v>7449.618836696954</v>
       </c>
       <c r="N6" t="n">
-        <v>28002.75787981751</v>
+        <v>23149.47125346132</v>
       </c>
       <c r="O6" t="n">
-        <v>90832.10881413077</v>
+        <v>90808.88447474808</v>
       </c>
       <c r="P6" t="n">
-        <v>90832.10881413077</v>
+        <v>90808.88447474811</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.972499675622</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1016.807635770898</v>
+        <v>1002.017323901524</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.330399428286</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.330399428286</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.330399428286</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.972499675622</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223498</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.5117782507937</v>
+        <v>334.5021172936674</v>
       </c>
       <c r="F4" t="n">
-        <v>256.5227636573884</v>
+        <v>276.2431794832205</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.930103956458652</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>583.972499675622</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223498</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.5117782507934</v>
+        <v>334.5021172936674</v>
       </c>
       <c r="N4" t="n">
-        <v>256.5227636573884</v>
+        <v>276.2431794832205</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.972499675622</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223498</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.5117782507937</v>
+        <v>334.5021172936674</v>
       </c>
       <c r="N4" t="n">
-        <v>256.5227636573884</v>
+        <v>276.2431794832205</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E2" t="n">
-        <v>104.2695450477277</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>51.77939815466812</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>106.0122620221433</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>166.3300489976291</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>83.52887324140022</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>44.07191583437728</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27786,13 +27786,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>108.9993815687713</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>188.1214263578961</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.0480725654924</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>222.8531101735158</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>421.468483493995</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>583.972499675622</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.972499675622</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.972499675622</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>77.34673934026046</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>296.9562613211783</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>93.11296772870696</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1016.807635770898</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1010.130262435117</v>
+        <v>135.5156951187128</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>935.0031416802843</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>563.5378943762548</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>123.8866949288631</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36121,16 +36121,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>314.2706063049977</v>
       </c>
       <c r="N20" t="n">
-        <v>123.8866949288631</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908064</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>973.8822356326327</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.891691782153</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,7 +37561,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>695.4268903509978</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37798,7 +37798,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,10 +37874,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
